--- a/analysis/cnes1zjo - 2080 VisProd HSIC basic/agg_df.xlsx
+++ b/analysis/cnes1zjo - 2080 VisProd HSIC basic/agg_df.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,12 @@
         </is>
       </c>
       <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>train-val time (s)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -541,6 +547,8 @@
       <c r="R2" s="1" t="n"/>
       <c r="S2" s="1" t="inlineStr"/>
       <c r="T2" s="1" t="n"/>
+      <c r="U2" s="1" t="inlineStr"/>
+      <c r="V2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr"/>
@@ -639,6 +647,16 @@
           <t>sem</t>
         </is>
       </c>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
+        <is>
+          <t>sem</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -701,6 +719,12 @@
       <c r="T5" t="n">
         <v>1</v>
       </c>
+      <c r="U5" t="n">
+        <v>648.0944646994272</v>
+      </c>
+      <c r="V5" t="n">
+        <v>17.90539647408948</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +787,12 @@
       <c r="T6" t="n">
         <v>1.452966314513558</v>
       </c>
+      <c r="U6" t="n">
+        <v>504.3012265364329</v>
+      </c>
+      <c r="V6" t="n">
+        <v>25.7290926829844</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -825,6 +855,12 @@
       <c r="T7" t="n">
         <v>1.855921454276674</v>
       </c>
+      <c r="U7" t="n">
+        <v>420.2748940785726</v>
+      </c>
+      <c r="V7" t="n">
+        <v>28.10795035768683</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -886,6 +922,12 @@
       </c>
       <c r="T8" t="n">
         <v>3.48010216963685</v>
+      </c>
+      <c r="U8" t="n">
+        <v>473.9949208895366</v>
+      </c>
+      <c r="V8" t="n">
+        <v>33.99477138899271</v>
       </c>
     </row>
     <row r="9">
@@ -949,6 +991,12 @@
       <c r="T9" t="n">
         <v>2.645751311064591</v>
       </c>
+      <c r="U9" t="n">
+        <v>458.6098748048146</v>
+      </c>
+      <c r="V9" t="n">
+        <v>12.43874906403676</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1011,6 +1059,12 @@
       <c r="T10" t="n">
         <v>2.848001248439177</v>
       </c>
+      <c r="U10" t="n">
+        <v>460.7780025800069</v>
+      </c>
+      <c r="V10" t="n">
+        <v>34.69488277157823</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1073,6 +1127,12 @@
       <c r="T11" t="n">
         <v>2.728450923957484</v>
       </c>
+      <c r="U11" t="n">
+        <v>436.790699005127</v>
+      </c>
+      <c r="V11" t="n">
+        <v>32.13937020195785</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1135,6 +1195,12 @@
       <c r="T12" t="n">
         <v>0.881917103688197</v>
       </c>
+      <c r="U12" t="n">
+        <v>434.7068945566813</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7.175574486012581</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1197,6 +1263,12 @@
       <c r="T13" t="n">
         <v>1.763834207376394</v>
       </c>
+      <c r="U13" t="n">
+        <v>477.0848302046458</v>
+      </c>
+      <c r="V13" t="n">
+        <v>38.03321515898835</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1259,6 +1331,12 @@
       <c r="T14" t="n">
         <v>5.044248650140519</v>
       </c>
+      <c r="U14" t="n">
+        <v>472.8968966007233</v>
+      </c>
+      <c r="V14" t="n">
+        <v>38.91419232953861</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1321,6 +1399,12 @@
       <c r="T15" t="n">
         <v>3</v>
       </c>
+      <c r="U15" t="n">
+        <v>450.3599088191986</v>
+      </c>
+      <c r="V15" t="n">
+        <v>19.67539315963628</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1383,6 +1467,12 @@
       <c r="T16" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="U16" t="n">
+        <v>448.4175174236298</v>
+      </c>
+      <c r="V16" t="n">
+        <v>17.45597341543712</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1445,6 +1535,12 @@
       <c r="T17" t="n">
         <v>4.255715111601235</v>
       </c>
+      <c r="U17" t="n">
+        <v>547.4054737091064</v>
+      </c>
+      <c r="V17" t="n">
+        <v>66.18769712676702</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1507,6 +1603,12 @@
       <c r="T18" t="n">
         <v>2.516611478423584</v>
       </c>
+      <c r="U18" t="n">
+        <v>525.409516175588</v>
+      </c>
+      <c r="V18" t="n">
+        <v>8.773851247444549</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1569,6 +1671,12 @@
       <c r="T19" t="n">
         <v>2.603416558635552</v>
       </c>
+      <c r="U19" t="n">
+        <v>483.5176532268524</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9.693107715978137</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1631,6 +1739,12 @@
       <c r="T20" t="n">
         <v>3.179797338056486</v>
       </c>
+      <c r="U20" t="n">
+        <v>466.7166789372762</v>
+      </c>
+      <c r="V20" t="n">
+        <v>16.90013253444464</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1693,6 +1807,12 @@
       <c r="T21" t="n">
         <v>3.214550253664318</v>
       </c>
+      <c r="U21" t="n">
+        <v>444.2841714223226</v>
+      </c>
+      <c r="V21" t="n">
+        <v>12.05826066499668</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1755,6 +1875,12 @@
       <c r="T22" t="n">
         <v>6.000000000000001</v>
       </c>
+      <c r="U22" t="n">
+        <v>444.3632830778758</v>
+      </c>
+      <c r="V22" t="n">
+        <v>36.07024953464136</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1817,6 +1943,12 @@
       <c r="T23" t="n">
         <v>4.702245326555294</v>
       </c>
+      <c r="U23" t="n">
+        <v>419.7457687854767</v>
+      </c>
+      <c r="V23" t="n">
+        <v>13.6805468969372</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1879,13 +2011,20 @@
       <c r="T24" t="n">
         <v>4.333333333333334</v>
       </c>
+      <c r="U24" t="n">
+        <v>495.4979596138</v>
+      </c>
+      <c r="V24" t="n">
+        <v>56.06770003952608</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -1895,6 +2034,7 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
